--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/observatieprocedure/observatieprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/observatieprocedure/observatieprocedure.xlsx
@@ -3797,7 +3797,7 @@
     <t>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IOVCWXUNBOPUCH-UHFFFAOYSA-M|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NHNBFGGVMKEFGY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZTYNSQSZHARAZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HCWZEPKLWVAEOV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IUTPYMGCWINGEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LAHWLEDBADHJGA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVWHGTYKUMDIHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RPUMZMSNLZHIGZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBHQEUPUMONIKF-UHFFFAOYSA-N</t>
+    <t>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZTYNSQSZHARAZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HCWZEPKLWVAEOV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IUTPYMGCWINGEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LAHWLEDBADHJGA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVWHGTYKUMDIHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RPUMZMSNLZHIGZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBHQEUPUMONIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/sommatie_stoffen/pcb_t</t>
   </si>
   <si>
     <t>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATJFFYVFTNAWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BKVIYDNLLOSFOA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BUGBHKTXTAQXES-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LEONUFNNVUYDNQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PWHULOQIROXLJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAMTAEIAYCRO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WUOBERCRSABHOT-UHFFFAOYSA-N</t>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/observatieprocedure/observatieprocedure.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/observatieprocedure/observatieprocedure.xlsx
@@ -15407,7 +15407,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_001</v>
       </c>
       <c r="B301" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C301" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15440,10 +15440,10 @@
         <v>null</v>
       </c>
       <c r="M301" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/kiemgetal_bij_22c_en_36c</v>
       </c>
       <c r="N301" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/kiemgetal_bij_22c_en_36c</v>
       </c>
       <c r="O301" t="str">
         <v>null</v>
@@ -15457,7 +15457,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_002</v>
       </c>
       <c r="B302" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C302" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15490,10 +15490,10 @@
         <v>null</v>
       </c>
       <c r="M302" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coliformen|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/escherichia_coli</v>
       </c>
       <c r="N302" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coliformen|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/escherichia_coli</v>
       </c>
       <c r="O302" t="str">
         <v>null</v>
@@ -15507,7 +15507,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_003</v>
       </c>
       <c r="B303" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C303" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15540,10 +15540,10 @@
         <v>null</v>
       </c>
       <c r="M303" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/intestinale_enterococci</v>
       </c>
       <c r="N303" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/intestinale_enterococci</v>
       </c>
       <c r="O303" t="str">
         <v>null</v>
@@ -15557,7 +15557,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_004</v>
       </c>
       <c r="B304" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C304" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15590,10 +15590,10 @@
         <v>null</v>
       </c>
       <c r="M304" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/salmonella_spp.</v>
       </c>
       <c r="N304" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/salmonella_spp.</v>
       </c>
       <c r="O304" t="str">
         <v>null</v>
@@ -15607,7 +15607,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_005</v>
       </c>
       <c r="B305" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C305" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15640,10 +15640,10 @@
         <v>null</v>
       </c>
       <c r="M305" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_pneumophila|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_spp._</v>
       </c>
       <c r="N305" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_pneumophila|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_spp._</v>
       </c>
       <c r="O305" t="str">
         <v>null</v>
@@ -15657,7 +15657,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_006</v>
       </c>
       <c r="B306" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C306" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15690,10 +15690,10 @@
         <v>null</v>
       </c>
       <c r="M306" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudomonas_aeruginosa</v>
       </c>
       <c r="N306" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudomonas_aeruginosa</v>
       </c>
       <c r="O306" t="str">
         <v>null</v>
@@ -15707,7 +15707,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_007</v>
       </c>
       <c r="B307" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C307" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15740,10 +15740,10 @@
         <v>null</v>
       </c>
       <c r="M307" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/clostridium_perfringens</v>
       </c>
       <c r="N307" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/clostridium_perfringens</v>
       </c>
       <c r="O307" t="str">
         <v>null</v>
@@ -15757,7 +15757,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_008</v>
       </c>
       <c r="B308" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C308" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15790,10 +15790,10 @@
         <v>null</v>
       </c>
       <c r="M308" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coagulase_positieve_staphylococci</v>
       </c>
       <c r="N308" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coagulase_positieve_staphylococci</v>
       </c>
       <c r="O308" t="str">
         <v>null</v>
@@ -15857,7 +15857,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_001</v>
       </c>
       <c r="B310" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C310" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15890,10 +15890,10 @@
         <v>null</v>
       </c>
       <c r="M310" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/anostraca|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/daphnia_magna</v>
       </c>
       <c r="N310" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/anostraca|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/daphnia_magna</v>
       </c>
       <c r="O310" t="str">
         <v>null</v>
@@ -15907,7 +15907,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_002</v>
       </c>
       <c r="B311" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C311" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -15940,10 +15940,10 @@
         <v>null</v>
       </c>
       <c r="M311" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/danio_rerio</v>
       </c>
       <c r="N311" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/danio_rerio</v>
       </c>
       <c r="O311" t="str">
         <v>null</v>
@@ -15990,10 +15990,10 @@
         <v>14158-23-7|14798-03-9|6684-80-6|16887-00-6|14808-79-8|18785-72-3</v>
       </c>
       <c r="M312" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QAOWNCQODCNURD-UHFFFAOYSA-L|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QGZKDVFQNNGYKY-UHFFFAOYSA-O|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEXZGXHMUGYJMC-UHFFFAOYSA-M</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/phaeodactylum_tricornutum|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudokirchneriella_subcapitata|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QAOWNCQODCNURD-UHFFFAOYSA-L|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QGZKDVFQNNGYKY-UHFFFAOYSA-O|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEXZGXHMUGYJMC-UHFFFAOYSA-M</v>
       </c>
       <c r="N312" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QAOWNCQODCNURD-UHFFFAOYSA-L|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QGZKDVFQNNGYKY-UHFFFAOYSA-O|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEXZGXHMUGYJMC-UHFFFAOYSA-M</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/phaeodactylum_tricornutum|https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudokirchneriella_subcapitata|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QAOWNCQODCNURD-UHFFFAOYSA-L|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QGZKDVFQNNGYKY-UHFFFAOYSA-O|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEXZGXHMUGYJMC-UHFFFAOYSA-M</v>
       </c>
       <c r="O312" t="str">
         <v>null</v>
@@ -16007,7 +16007,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_004</v>
       </c>
       <c r="B313" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C313" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -16040,10 +16040,10 @@
         <v>null</v>
       </c>
       <c r="M313" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/aliivibrio_fischeri</v>
       </c>
       <c r="N313" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/aliivibrio_fischeri</v>
       </c>
       <c r="O313" t="str">
         <v>null</v>
@@ -16107,7 +16107,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_007</v>
       </c>
       <c r="B315" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C315" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/observatieprocedure</v>
@@ -16140,10 +16140,10 @@
         <v>null</v>
       </c>
       <c r="M315" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/oncorhyncus_mykiss</v>
       </c>
       <c r="N315" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/oncorhyncus_mykiss</v>
       </c>
       <c r="O315" t="str">
         <v>null</v>
